--- a/NewInput/NewInput_Data.xlsx
+++ b/NewInput/NewInput_Data.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -847,7 +847,7 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">

--- a/NewInput/NewInput_Data.xlsx
+++ b/NewInput/NewInput_Data.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -847,7 +847,7 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">

--- a/NewInput/NewInput_Data.xlsx
+++ b/NewInput/NewInput_Data.xlsx
@@ -433,7 +433,7 @@
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -847,7 +847,7 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">

--- a/NewInput/NewInput_Data.xlsx
+++ b/NewInput/NewInput_Data.xlsx
@@ -847,7 +847,7 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">

--- a/NewInput/NewInput_Data.xlsx
+++ b/NewInput/NewInput_Data.xlsx
@@ -847,7 +847,7 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">

--- a/NewInput/NewInput_Data.xlsx
+++ b/NewInput/NewInput_Data.xlsx
@@ -847,7 +847,7 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">

--- a/NewInput/NewInput_Data.xlsx
+++ b/NewInput/NewInput_Data.xlsx
@@ -847,7 +847,7 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
